--- a/meresek_Parhuzamos.xlsx
+++ b/meresek_Parhuzamos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\parhuzamos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E53892C6-72BC-4146-B953-DC2B50DCD402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A3F9F3-8621-466F-A6F3-86D86EDD630A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{0860E938-3A05-4001-A012-B643EA8580CB}"/>
   </bookViews>
